--- a/team_specific_matrix/Richmond_A.xlsx
+++ b/team_specific_matrix/Richmond_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1508379888268156</v>
+        <v>0.1798245614035088</v>
       </c>
       <c r="C2">
-        <v>0.6089385474860335</v>
+        <v>0.5657894736842105</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.00558659217877095</v>
+        <v>0.008771929824561403</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1173184357541899</v>
+        <v>0.1403508771929824</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1173184357541899</v>
+        <v>0.1052631578947368</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.05263157894736842</v>
+        <v>0.04477611940298507</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.007462686567164179</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7368421052631579</v>
+        <v>0.746268656716418</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2105263157894737</v>
+        <v>0.2014925373134328</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7307692307692307</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2692307692307692</v>
+        <v>0.303030303030303</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.6666666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04320987654320987</v>
+        <v>0.04615384615384616</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01851851851851852</v>
+        <v>0.02051282051282051</v>
       </c>
       <c r="E6">
-        <v>0.006172839506172839</v>
+        <v>0.005128205128205128</v>
       </c>
       <c r="F6">
-        <v>0.03703703703703703</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2160493827160494</v>
+        <v>0.2051282051282051</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01234567901234568</v>
+        <v>0.01025641025641026</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.2469135802469136</v>
+        <v>0.2512820512820513</v>
       </c>
       <c r="R6">
-        <v>0.06172839506172839</v>
+        <v>0.08205128205128205</v>
       </c>
       <c r="S6">
-        <v>0.3580246913580247</v>
+        <v>0.3487179487179487</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1111111111111111</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01587301587301587</v>
+        <v>0.01360544217687075</v>
       </c>
       <c r="E7">
-        <v>0.007936507936507936</v>
+        <v>0.006802721088435374</v>
       </c>
       <c r="F7">
-        <v>0.07142857142857142</v>
+        <v>0.06122448979591837</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.0873015873015873</v>
+        <v>0.08843537414965986</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.006802721088435374</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2301587301587301</v>
+        <v>0.2312925170068027</v>
       </c>
       <c r="R7">
-        <v>0.06349206349206349</v>
+        <v>0.06802721088435375</v>
       </c>
       <c r="S7">
-        <v>0.4126984126984127</v>
+        <v>0.4217687074829932</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09634551495016612</v>
+        <v>0.09392265193370165</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.006644518272425249</v>
+        <v>0.005524861878453038</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.002762430939226519</v>
       </c>
       <c r="F8">
-        <v>0.05647840531561462</v>
+        <v>0.06077348066298342</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.05647840531561462</v>
+        <v>0.06353591160220995</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.006644518272425249</v>
+        <v>0.005524861878453038</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.212624584717608</v>
+        <v>0.2071823204419889</v>
       </c>
       <c r="R8">
-        <v>0.1229235880398671</v>
+        <v>0.1132596685082873</v>
       </c>
       <c r="S8">
-        <v>0.4418604651162791</v>
+        <v>0.4475138121546962</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.04487179487179487</v>
+        <v>0.04371584699453552</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.05128205128205128</v>
+        <v>0.04918032786885246</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.0576923076923077</v>
+        <v>0.07103825136612021</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.04487179487179487</v>
+        <v>0.0546448087431694</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01282051282051282</v>
+        <v>0.01092896174863388</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2435897435897436</v>
+        <v>0.2349726775956284</v>
       </c>
       <c r="R9">
-        <v>0.08333333333333333</v>
+        <v>0.1038251366120219</v>
       </c>
       <c r="S9">
-        <v>0.4615384615384616</v>
+        <v>0.4316939890710382</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.0982532751091703</v>
+        <v>0.1049773755656109</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01200873362445415</v>
+        <v>0.01447963800904977</v>
       </c>
       <c r="E10">
-        <v>0.001091703056768559</v>
+        <v>0.0009049773755656109</v>
       </c>
       <c r="F10">
-        <v>0.08078602620087336</v>
+        <v>0.07963800904977375</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.08078602620087336</v>
+        <v>0.08144796380090498</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01091703056768559</v>
+        <v>0.01176470588235294</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2106986899563319</v>
+        <v>0.2153846153846154</v>
       </c>
       <c r="R10">
-        <v>0.08187772925764192</v>
+        <v>0.08416289592760182</v>
       </c>
       <c r="S10">
-        <v>0.4235807860262009</v>
+        <v>0.4072398190045249</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.154639175257732</v>
+        <v>0.1371681415929203</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.05670103092783505</v>
+        <v>0.06637168141592921</v>
       </c>
       <c r="K11">
-        <v>0.2061855670103093</v>
+        <v>0.1991150442477876</v>
       </c>
       <c r="L11">
-        <v>0.5567010309278351</v>
+        <v>0.5707964601769911</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02577319587628866</v>
+        <v>0.02654867256637168</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7657657657657657</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1801801801801802</v>
+        <v>0.183206106870229</v>
       </c>
       <c r="K12">
-        <v>0.009009009009009009</v>
+        <v>0.007633587786259542</v>
       </c>
       <c r="L12">
-        <v>0.02702702702702703</v>
+        <v>0.03053435114503817</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01801801801801802</v>
+        <v>0.01526717557251908</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5833333333333334</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2916666666666667</v>
+        <v>0.2903225806451613</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.125</v>
+        <v>0.09677419354838709</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.03378378378378379</v>
+        <v>0.02873563218390805</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1418918918918919</v>
+        <v>0.1379310344827586</v>
       </c>
       <c r="I15">
-        <v>0.0945945945945946</v>
+        <v>0.09770114942528736</v>
       </c>
       <c r="J15">
-        <v>0.4121621621621622</v>
+        <v>0.3908045977011494</v>
       </c>
       <c r="K15">
-        <v>0.07432432432432433</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.006756756756756757</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="N15">
-        <v>0.006756756756756757</v>
+        <v>0.005747126436781609</v>
       </c>
       <c r="O15">
-        <v>0.0472972972972973</v>
+        <v>0.04022988505747126</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.1824324324324324</v>
+        <v>0.2126436781609195</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.04166666666666666</v>
+        <v>0.03311258278145696</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.15</v>
+        <v>0.1390728476821192</v>
       </c>
       <c r="I16">
-        <v>0.06666666666666667</v>
+        <v>0.0728476821192053</v>
       </c>
       <c r="J16">
-        <v>0.4333333333333333</v>
+        <v>0.4437086092715232</v>
       </c>
       <c r="K16">
-        <v>0.1</v>
+        <v>0.09271523178807947</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01666666666666667</v>
+        <v>0.01986754966887417</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05</v>
+        <v>0.04635761589403974</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1416666666666667</v>
+        <v>0.152317880794702</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02472527472527472</v>
+        <v>0.02277904328018223</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1703296703296703</v>
+        <v>0.1685649202733485</v>
       </c>
       <c r="I17">
-        <v>0.08241758241758242</v>
+        <v>0.07517084282460136</v>
       </c>
       <c r="J17">
-        <v>0.4230769230769231</v>
+        <v>0.4396355353075171</v>
       </c>
       <c r="K17">
-        <v>0.07692307692307693</v>
+        <v>0.07517084282460136</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01373626373626374</v>
+        <v>0.01366742596810934</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.07417582417582418</v>
+        <v>0.07289293849658314</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1346153846153846</v>
+        <v>0.132118451025057</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02797202797202797</v>
+        <v>0.02247191011235955</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.0979020979020979</v>
+        <v>0.1235955056179775</v>
       </c>
       <c r="I18">
-        <v>0.1118881118881119</v>
+        <v>0.1179775280898876</v>
       </c>
       <c r="J18">
-        <v>0.4895104895104895</v>
+        <v>0.4831460674157304</v>
       </c>
       <c r="K18">
-        <v>0.08391608391608392</v>
+        <v>0.08426966292134831</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01398601398601399</v>
+        <v>0.01123595505617977</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06993006993006994</v>
+        <v>0.06741573033707865</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1048951048951049</v>
+        <v>0.0898876404494382</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.007322175732217573</v>
+        <v>0.009777777777777778</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.196652719665272</v>
+        <v>0.1982222222222222</v>
       </c>
       <c r="I19">
-        <v>0.09205020920502092</v>
+        <v>0.08977777777777778</v>
       </c>
       <c r="J19">
-        <v>0.4278242677824268</v>
+        <v>0.424</v>
       </c>
       <c r="K19">
-        <v>0.09414225941422594</v>
+        <v>0.0951111111111111</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01464435146443515</v>
+        <v>0.01511111111111111</v>
       </c>
       <c r="N19">
-        <v>0.00104602510460251</v>
+        <v>0.0008888888888888889</v>
       </c>
       <c r="O19">
-        <v>0.06276150627615062</v>
+        <v>0.06311111111111112</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1035564853556485</v>
+        <v>0.104</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Richmond_A.xlsx
+++ b/team_specific_matrix/Richmond_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1798245614035088</v>
+        <v>0.1853281853281853</v>
       </c>
       <c r="C2">
-        <v>0.5657894736842105</v>
+        <v>0.5598455598455598</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.008771929824561403</v>
+        <v>0.007722007722007722</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1403508771929824</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1052631578947368</v>
+        <v>0.1042471042471042</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.04477611940298507</v>
+        <v>0.04666666666666667</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.007462686567164179</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.746268656716418</v>
+        <v>0.76</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2014925373134328</v>
+        <v>0.1866666666666667</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.696969696969697</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.303030303030303</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04615384615384616</v>
+        <v>0.05213270142180094</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02051282051282051</v>
+        <v>0.01895734597156398</v>
       </c>
       <c r="E6">
-        <v>0.005128205128205128</v>
+        <v>0.004739336492890996</v>
       </c>
       <c r="F6">
-        <v>0.03076923076923077</v>
+        <v>0.03791469194312796</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2051282051282051</v>
+        <v>0.2037914691943128</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01025641025641026</v>
+        <v>0.009478672985781991</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.2512820512820513</v>
+        <v>0.2417061611374408</v>
       </c>
       <c r="R6">
-        <v>0.08205128205128205</v>
+        <v>0.08530805687203792</v>
       </c>
       <c r="S6">
-        <v>0.3487179487179487</v>
+        <v>0.3459715639810427</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1020408163265306</v>
+        <v>0.09696969696969697</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01360544217687075</v>
+        <v>0.01212121212121212</v>
       </c>
       <c r="E7">
-        <v>0.006802721088435374</v>
+        <v>0.006060606060606061</v>
       </c>
       <c r="F7">
-        <v>0.06122448979591837</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.08843537414965986</v>
+        <v>0.07878787878787878</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.006802721088435374</v>
+        <v>0.01212121212121212</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2312925170068027</v>
+        <v>0.2303030303030303</v>
       </c>
       <c r="R7">
-        <v>0.06802721088435375</v>
+        <v>0.08484848484848485</v>
       </c>
       <c r="S7">
-        <v>0.4217687074829932</v>
+        <v>0.4181818181818182</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09392265193370165</v>
+        <v>0.0960591133004926</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.005524861878453038</v>
+        <v>0.007389162561576354</v>
       </c>
       <c r="E8">
-        <v>0.002762430939226519</v>
+        <v>0.002463054187192118</v>
       </c>
       <c r="F8">
-        <v>0.06077348066298342</v>
+        <v>0.06403940886699508</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.06353591160220995</v>
+        <v>0.05911330049261083</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.005524861878453038</v>
+        <v>0.004926108374384237</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2071823204419889</v>
+        <v>0.20935960591133</v>
       </c>
       <c r="R8">
-        <v>0.1132596685082873</v>
+        <v>0.1083743842364532</v>
       </c>
       <c r="S8">
-        <v>0.4475138121546962</v>
+        <v>0.4482758620689655</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.04371584699453552</v>
+        <v>0.04854368932038835</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.04918032786885246</v>
+        <v>0.04854368932038835</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.07103825136612021</v>
+        <v>0.06796116504854369</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.0546448087431694</v>
+        <v>0.05339805825242718</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01092896174863388</v>
+        <v>0.009708737864077669</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2349726775956284</v>
+        <v>0.2330097087378641</v>
       </c>
       <c r="R9">
-        <v>0.1038251366120219</v>
+        <v>0.1116504854368932</v>
       </c>
       <c r="S9">
-        <v>0.4316939890710382</v>
+        <v>0.4271844660194175</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1049773755656109</v>
+        <v>0.1050488599348534</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01447963800904977</v>
+        <v>0.01628664495114007</v>
       </c>
       <c r="E10">
-        <v>0.0009049773755656109</v>
+        <v>0.001628664495114007</v>
       </c>
       <c r="F10">
-        <v>0.07963800904977375</v>
+        <v>0.0741042345276873</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.08144796380090498</v>
+        <v>0.08224755700325732</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01176470588235294</v>
+        <v>0.01140065146579805</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2153846153846154</v>
+        <v>0.2133550488599349</v>
       </c>
       <c r="R10">
-        <v>0.08416289592760182</v>
+        <v>0.08631921824104234</v>
       </c>
       <c r="S10">
-        <v>0.4072398190045249</v>
+        <v>0.4096091205211727</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1371681415929203</v>
+        <v>0.126984126984127</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06637168141592921</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="K11">
-        <v>0.1991150442477876</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="L11">
-        <v>0.5707964601769911</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02654867256637168</v>
+        <v>0.02777777777777778</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7633587786259542</v>
+        <v>0.7549668874172185</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.183206106870229</v>
+        <v>0.1788079470198675</v>
       </c>
       <c r="K12">
-        <v>0.007633587786259542</v>
+        <v>0.01324503311258278</v>
       </c>
       <c r="L12">
-        <v>0.03053435114503817</v>
+        <v>0.03973509933774835</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01526717557251908</v>
+        <v>0.01324503311258278</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6129032258064516</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2903225806451613</v>
+        <v>0.2647058823529412</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.09677419354838709</v>
+        <v>0.08823529411764706</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02873563218390805</v>
+        <v>0.02604166666666667</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1379310344827586</v>
+        <v>0.140625</v>
       </c>
       <c r="I15">
-        <v>0.09770114942528736</v>
+        <v>0.109375</v>
       </c>
       <c r="J15">
-        <v>0.3908045977011494</v>
+        <v>0.390625</v>
       </c>
       <c r="K15">
-        <v>0.06896551724137931</v>
+        <v>0.06770833333333333</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01724137931034483</v>
+        <v>0.015625</v>
       </c>
       <c r="N15">
-        <v>0.005747126436781609</v>
+        <v>0.005208333333333333</v>
       </c>
       <c r="O15">
-        <v>0.04022988505747126</v>
+        <v>0.03645833333333334</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2126436781609195</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.03311258278145696</v>
+        <v>0.03468208092485549</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1390728476821192</v>
+        <v>0.1271676300578035</v>
       </c>
       <c r="I16">
-        <v>0.0728476821192053</v>
+        <v>0.06358381502890173</v>
       </c>
       <c r="J16">
-        <v>0.4437086092715232</v>
+        <v>0.4450867052023121</v>
       </c>
       <c r="K16">
-        <v>0.09271523178807947</v>
+        <v>0.115606936416185</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01986754966887417</v>
+        <v>0.02890173410404624</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04635761589403974</v>
+        <v>0.04046242774566474</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.152317880794702</v>
+        <v>0.1445086705202312</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02277904328018223</v>
+        <v>0.02070393374741201</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1685649202733485</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="I17">
-        <v>0.07517084282460136</v>
+        <v>0.07453416149068323</v>
       </c>
       <c r="J17">
-        <v>0.4396355353075171</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="K17">
-        <v>0.07517084282460136</v>
+        <v>0.08074534161490683</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01366742596810934</v>
+        <v>0.01449275362318841</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.07289293849658314</v>
+        <v>0.07660455486542443</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.132118451025057</v>
+        <v>0.1304347826086956</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02247191011235955</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1235955056179775</v>
+        <v>0.1372549019607843</v>
       </c>
       <c r="I18">
-        <v>0.1179775280898876</v>
+        <v>0.1029411764705882</v>
       </c>
       <c r="J18">
-        <v>0.4831460674157304</v>
+        <v>0.4803921568627451</v>
       </c>
       <c r="K18">
-        <v>0.08426966292134831</v>
+        <v>0.07843137254901961</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01123595505617977</v>
+        <v>0.009803921568627451</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06741573033707865</v>
+        <v>0.06862745098039216</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.0898876404494382</v>
+        <v>0.1029411764705882</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.009777777777777778</v>
+        <v>0.009554140127388535</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1982222222222222</v>
+        <v>0.196656050955414</v>
       </c>
       <c r="I19">
-        <v>0.08977777777777778</v>
+        <v>0.09315286624203821</v>
       </c>
       <c r="J19">
-        <v>0.424</v>
+        <v>0.428343949044586</v>
       </c>
       <c r="K19">
-        <v>0.0951111111111111</v>
+        <v>0.09156050955414012</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01511111111111111</v>
+        <v>0.01353503184713376</v>
       </c>
       <c r="N19">
-        <v>0.0008888888888888889</v>
+        <v>0.0007961783439490446</v>
       </c>
       <c r="O19">
-        <v>0.06311111111111112</v>
+        <v>0.06130573248407643</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.104</v>
+        <v>0.1050955414012739</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Richmond_A.xlsx
+++ b/team_specific_matrix/Richmond_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1853281853281853</v>
+        <v>0.1808118081180812</v>
       </c>
       <c r="C2">
-        <v>0.5598455598455598</v>
+        <v>0.5645756457564576</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.007722007722007722</v>
+        <v>0.007380073800738007</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1428571428571428</v>
+        <v>0.1402214022140221</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1042471042471042</v>
+        <v>0.1070110701107011</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.04666666666666667</v>
+        <v>0.04430379746835443</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.006666666666666667</v>
+        <v>0.006329113924050633</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.76</v>
+        <v>0.7658227848101266</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1866666666666667</v>
+        <v>0.1835443037974684</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6666666666666666</v>
+        <v>0.6829268292682927</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3333333333333333</v>
+        <v>0.3170731707317073</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05213270142180094</v>
+        <v>0.0502283105022831</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01895734597156398</v>
+        <v>0.0182648401826484</v>
       </c>
       <c r="E6">
-        <v>0.004739336492890996</v>
+        <v>0.0045662100456621</v>
       </c>
       <c r="F6">
-        <v>0.03791469194312796</v>
+        <v>0.0365296803652968</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2037914691943128</v>
+        <v>0.2146118721461187</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.009478672985781991</v>
+        <v>0.0091324200913242</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.2417061611374408</v>
+        <v>0.2328767123287671</v>
       </c>
       <c r="R6">
-        <v>0.08530805687203792</v>
+        <v>0.0821917808219178</v>
       </c>
       <c r="S6">
-        <v>0.3459715639810427</v>
+        <v>0.3515981735159817</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09696969696969697</v>
+        <v>0.09411764705882353</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01212121212121212</v>
+        <v>0.01176470588235294</v>
       </c>
       <c r="E7">
-        <v>0.006060606060606061</v>
+        <v>0.005882352941176471</v>
       </c>
       <c r="F7">
-        <v>0.06060606060606061</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.07878787878787878</v>
+        <v>0.07647058823529412</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01212121212121212</v>
+        <v>0.01176470588235294</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2303030303030303</v>
+        <v>0.2294117647058823</v>
       </c>
       <c r="R7">
-        <v>0.08484848484848485</v>
+        <v>0.08235294117647059</v>
       </c>
       <c r="S7">
-        <v>0.4181818181818182</v>
+        <v>0.4294117647058823</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0960591133004926</v>
+        <v>0.09785202863961814</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.007389162561576354</v>
+        <v>0.007159904534606206</v>
       </c>
       <c r="E8">
-        <v>0.002463054187192118</v>
+        <v>0.002386634844868735</v>
       </c>
       <c r="F8">
-        <v>0.06403940886699508</v>
+        <v>0.06205250596658711</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.05911330049261083</v>
+        <v>0.06205250596658711</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.004926108374384237</v>
+        <v>0.00477326968973747</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.20935960591133</v>
+        <v>0.2195704057279236</v>
       </c>
       <c r="R8">
-        <v>0.1083743842364532</v>
+        <v>0.1073985680190931</v>
       </c>
       <c r="S8">
-        <v>0.4482758620689655</v>
+        <v>0.4367541766109785</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.04854368932038835</v>
+        <v>0.05581395348837209</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.04854368932038835</v>
+        <v>0.05116279069767442</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06796116504854369</v>
+        <v>0.06976744186046512</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.05339805825242718</v>
+        <v>0.05581395348837209</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.009708737864077669</v>
+        <v>0.009302325581395349</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2330097087378641</v>
+        <v>0.2325581395348837</v>
       </c>
       <c r="R9">
-        <v>0.1116504854368932</v>
+        <v>0.1069767441860465</v>
       </c>
       <c r="S9">
-        <v>0.4271844660194175</v>
+        <v>0.4186046511627907</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1050488599348534</v>
+        <v>0.1068342498036135</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01628664495114007</v>
+        <v>0.01649646504320503</v>
       </c>
       <c r="E10">
-        <v>0.001628664495114007</v>
+        <v>0.001571091908876669</v>
       </c>
       <c r="F10">
-        <v>0.0741042345276873</v>
+        <v>0.07305577376276512</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.08224755700325732</v>
+        <v>0.08091123330714847</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01140065146579805</v>
+        <v>0.01256873527101336</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2133550488599349</v>
+        <v>0.2144540455616654</v>
       </c>
       <c r="R10">
-        <v>0.08631921824104234</v>
+        <v>0.08483896307934014</v>
       </c>
       <c r="S10">
-        <v>0.4096091205211727</v>
+        <v>0.4092694422623723</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.126984126984127</v>
+        <v>0.1307692307692308</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07142857142857142</v>
+        <v>0.07307692307692308</v>
       </c>
       <c r="K11">
-        <v>0.1904761904761905</v>
+        <v>0.1961538461538462</v>
       </c>
       <c r="L11">
-        <v>0.5833333333333334</v>
+        <v>0.573076923076923</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02777777777777778</v>
+        <v>0.02692307692307692</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7549668874172185</v>
+        <v>0.7516339869281046</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1788079470198675</v>
+        <v>0.1830065359477124</v>
       </c>
       <c r="K12">
-        <v>0.01324503311258278</v>
+        <v>0.0130718954248366</v>
       </c>
       <c r="L12">
-        <v>0.03973509933774835</v>
+        <v>0.0392156862745098</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01324503311258278</v>
+        <v>0.0130718954248366</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6470588235294118</v>
+        <v>0.6486486486486487</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2647058823529412</v>
+        <v>0.2702702702702703</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.08823529411764706</v>
+        <v>0.08108108108108109</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02604166666666667</v>
+        <v>0.02475247524752475</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.140625</v>
+        <v>0.1336633663366337</v>
       </c>
       <c r="I15">
-        <v>0.109375</v>
+        <v>0.103960396039604</v>
       </c>
       <c r="J15">
-        <v>0.390625</v>
+        <v>0.3910891089108911</v>
       </c>
       <c r="K15">
-        <v>0.06770833333333333</v>
+        <v>0.06435643564356436</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.015625</v>
+        <v>0.01485148514851485</v>
       </c>
       <c r="N15">
-        <v>0.005208333333333333</v>
+        <v>0.004950495049504951</v>
       </c>
       <c r="O15">
-        <v>0.03645833333333334</v>
+        <v>0.0396039603960396</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2083333333333333</v>
+        <v>0.2227722772277228</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.03468208092485549</v>
+        <v>0.03296703296703297</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1271676300578035</v>
+        <v>0.1318681318681319</v>
       </c>
       <c r="I16">
-        <v>0.06358381502890173</v>
+        <v>0.06593406593406594</v>
       </c>
       <c r="J16">
-        <v>0.4450867052023121</v>
+        <v>0.4230769230769231</v>
       </c>
       <c r="K16">
-        <v>0.115606936416185</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02890173410404624</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04046242774566474</v>
+        <v>0.04395604395604396</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1445086705202312</v>
+        <v>0.1483516483516484</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02070393374741201</v>
+        <v>0.02182539682539682</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1739130434782609</v>
+        <v>0.1726190476190476</v>
       </c>
       <c r="I17">
-        <v>0.07453416149068323</v>
+        <v>0.07539682539682539</v>
       </c>
       <c r="J17">
-        <v>0.4285714285714285</v>
+        <v>0.4305555555555556</v>
       </c>
       <c r="K17">
-        <v>0.08074534161490683</v>
+        <v>0.07936507936507936</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01449275362318841</v>
+        <v>0.01388888888888889</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.07660455486542443</v>
+        <v>0.08134920634920635</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1304347826086956</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.0196078431372549</v>
+        <v>0.01932367149758454</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1372549019607843</v>
+        <v>0.1352657004830918</v>
       </c>
       <c r="I18">
-        <v>0.1029411764705882</v>
+        <v>0.106280193236715</v>
       </c>
       <c r="J18">
-        <v>0.4803921568627451</v>
+        <v>0.4734299516908212</v>
       </c>
       <c r="K18">
-        <v>0.07843137254901961</v>
+        <v>0.07729468599033816</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.009803921568627451</v>
+        <v>0.01449275362318841</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06862745098039216</v>
+        <v>0.06763285024154589</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1029411764705882</v>
+        <v>0.106280193236715</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.009554140127388535</v>
+        <v>0.01153846153846154</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.196656050955414</v>
+        <v>0.1961538461538462</v>
       </c>
       <c r="I19">
-        <v>0.09315286624203821</v>
+        <v>0.09384615384615384</v>
       </c>
       <c r="J19">
-        <v>0.428343949044586</v>
+        <v>0.4292307692307692</v>
       </c>
       <c r="K19">
-        <v>0.09156050955414012</v>
+        <v>0.09076923076923077</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01353503184713376</v>
+        <v>0.01307692307692308</v>
       </c>
       <c r="N19">
-        <v>0.0007961783439490446</v>
+        <v>0.0007692307692307692</v>
       </c>
       <c r="O19">
-        <v>0.06130573248407643</v>
+        <v>0.06</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1050955414012739</v>
+        <v>0.1046153846153846</v>
       </c>
     </row>
   </sheetData>
